--- a/medicine/Pharmacie/1937_en_santé_et_médecine/1937_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1937_en_santé_et_médecine/1937_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1937_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1937_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1937 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1937_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1937_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dorothy Crowfoot Hodgkin publie sa thèse de doctorat en chimie sur la structure du cholestérol[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dorothy Crowfoot Hodgkin publie sa thèse de doctorat en chimie sur la structure du cholestérol.
 En accord avec les travaux néodarwiniens sur les chromosomes et la génétique, Theodosius Dobjansky applique aux populations la théorie synthétique de l'évolution, également appelée « synthèse moderne », terme inventé par Julian Huxley.[réf. nécessaire]</t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1937_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1937_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>14 juin : la revue Nature rejette un article de Hans Adolf Krebs décrivant la voie métabolique, par la suite dénommée cycle de Krebs, aboutissant à la formation de l'adénosine triphosphate (ATP). Deux mois plus tard, Krebs publie son article dans une autre revue, Enzymologia (en)[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14 juin : la revue Nature rejette un article de Hans Adolf Krebs décrivant la voie métabolique, par la suite dénommée cycle de Krebs, aboutissant à la formation de l'adénosine triphosphate (ATP). Deux mois plus tard, Krebs publie son article dans une autre revue, Enzymologia (en).</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1937_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1937_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Nobel de physiologie ou médecine : Albert von Szent-Györgyi Nagyrapolt (1893-1986).
 Médaille Copley : Henry Dale (1875-1968).</t>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1937_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1937_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>23 mars :
 Ibrahim Abouleish (mort en 2017), médecin et chimiste égyptien.
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1937_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1937_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>28 mai : Alfred Adler (né en 1870), psychologue autrichien.
 Marcel Mérieux (né en 1870), biochimiste français.</t>
